--- a/biology/Zoologie/Carphodactylus_laevis/Carphodactylus_laevis.xlsx
+++ b/biology/Zoologie/Carphodactylus_laevis/Carphodactylus_laevis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carphodactylus laevis, unique représentant du genre Carphodactylus, est une espèce de gecko de la famille des Carphodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carphodactylus laevis, unique représentant du genre Carphodactylus, est une espèce de gecko de la famille des Carphodactylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce vit dans la forêt tropicale[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce vit dans la forêt tropicale.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce gecko est assez svelte. Il est de couleur brun, avec des points brun clair et noirs sur le dos, et la tête plus foncée, avec une ligne noire entre les narines et les yeux.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Günther, 1897 : Descriptions of new species of lizards and of a tree-frog from north-eastern Queensland. Novitates Zoologicae, Zoological Museum, vol. 4, p. 403-406 (texte intégral).</t>
         </is>
